--- a/class_diagram/after/controller/view/manager/面談予約システム_クラス図 (controller.view.manager).xlsx
+++ b/class_diagram/after/controller/view/manager/面談予約システム_クラス図 (controller.view.manager).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4665EA3F-CA97-488C-A68B-41A66E697B4B}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E88484E-B01A-468B-BB44-6A294F3202AB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
@@ -972,7 +972,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>loginView (session : HttpSession, model : Model, form : LoginForm)</a:t>
+            <a:t>formView (session : HttpSession, model : Model)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3100,7 +3100,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/controller/view/manager/面談予約システム_クラス図 (controller.view.manager).xlsx
+++ b/class_diagram/after/controller/view/manager/面談予約システム_クラス図 (controller.view.manager).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E88484E-B01A-468B-BB44-6A294F3202AB}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA1B52B-B03A-44C6-BC54-192E67F6B433}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="InterviewerGetViewController" sheetId="6" r:id="rId4"/>
     <sheet name="InterviewersGetViewController" sheetId="8" r:id="rId5"/>
     <sheet name="SearchInterviewersGetViewContro" sheetId="9" r:id="rId6"/>
+    <sheet name="ManagerGetViewController" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
+  </si>
+  <si>
+    <t>　--r 返り値のデータ型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> メソッド</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2695,6 +2708,405 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0563A581-3684-42CF-BFAE-DA95A0CEDAC2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1743075"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ManagerGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C0FD6D-A5DF-457F-AFB3-EBF201CE2161}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0563A581-3684-42CF-BFAE-DA95A0CEDAC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/manager_view")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>managerView (session : HttpSession, model : Model)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3315,7 +3727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D49A215-4DE0-4BE7-95F1-846A633B4E07}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="L7" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3363,4 +3775,58 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFD5DC5-7660-442B-B0E6-421D78D07A86}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/class_diagram/after/controller/view/manager/面談予約システム_クラス図 (controller.view.manager).xlsx
+++ b/class_diagram/after/controller/view/manager/面談予約システム_クラス図 (controller.view.manager).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA1B52B-B03A-44C6-BC54-192E67F6B433}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FAB216E-C152-40EA-B169-EE4B8D89CC0E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
@@ -431,7 +431,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/manager/signup")</a:t>
+            <a:t>@GetMapping("/manager/interviewer_signup")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -453,7 +453,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>formView (session : HttpSession, model : Model, form :  SignupForm)</a:t>
+            <a:t>formView (session : HttpSession, model : Model )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -655,7 +655,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/manager/signup/confirm")</a:t>
+            <a:t>@GetMapping("/manager/interviewer_signup/confirm")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1293,7 +1293,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>formView (session : HttpSession, model : Model, form :  InterviewerSetForm)</a:t>
+            <a:t>formView (session : HttpSession, model : Model )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3458,7 +3458,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3619,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
@@ -3673,7 +3673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
@@ -3727,7 +3727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D49A215-4DE0-4BE7-95F1-846A633B4E07}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFD5DC5-7660-442B-B0E6-421D78D07A86}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/class_diagram/after/controller/view/manager/面談予約システム_クラス図 (controller.view.manager).xlsx
+++ b/class_diagram/after/controller/view/manager/面談予約システム_クラス図 (controller.view.manager).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FAB216E-C152-40EA-B169-EE4B8D89CC0E}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2D54E5-AB82-46C3-BB0E-61083121FD97}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
+    <sheet name="InterviewerSignupViewController" sheetId="3" r:id="rId1"/>
     <sheet name="LoginViewController" sheetId="2" r:id="rId2"/>
     <sheet name="InterviewerSetViewController" sheetId="5" r:id="rId3"/>
     <sheet name="InterviewerGetViewController" sheetId="6" r:id="rId4"/>
@@ -251,7 +251,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>SignupViewController</a:t>
+            <a:t>InterviewerSignupViewController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3458,7 +3458,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
